--- a/stock_predictor_ai/data/company_sentiment_ready/STZ_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/STZ_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8432"/>
+  <dimension ref="A1:B8435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67897,6 +67897,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8433">
+      <c r="A8433" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B8433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8434">
+      <c r="A8434" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B8434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8435">
+      <c r="A8435" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B8435" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
